--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+  </si>
+  <si>
     <t>Electricity Source</t>
   </si>
   <si>
-    <t>Qualifies for RPS</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -57,7 +62,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>BAU RPS-Qualifying Sources</t>
+    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
   </si>
   <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
@@ -78,31 +83,46 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Mexico counts everything except fossil fuels as "clean" energy.  This includes nuclear, hydro,</t>
-  </si>
-  <si>
-    <t>and biomass.</t>
-  </si>
-  <si>
-    <t>Mexico also counts some NG-fired combined heat and power as clean energy, but we</t>
-  </si>
-  <si>
-    <t>can't (and shouldn't) represent that in this variable</t>
-  </si>
-  <si>
-    <t>The non-BAU version of this variable tests what would happen if Mexico were</t>
-  </si>
-  <si>
-    <t>to adopt a much more restrictive definition of "clean" sources.</t>
-  </si>
-  <si>
-    <t>Mexico legal definitions</t>
+    <t>differences between states.  Here, we use a "clean energy standard"</t>
+  </si>
+  <si>
+    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
+  </si>
+  <si>
+    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
+  </si>
+  <si>
+    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>local air quality impacts and land use challenges.</t>
+  </si>
+  <si>
+    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
+  </si>
+  <si>
+    <t>see notes</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Qualifies for RPS (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,18 +148,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,17 +169,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -176,6 +187,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -224,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,82 +482,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -557,25 +573,27 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -583,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -591,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -599,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -607,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -615,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -623,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -631,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -639,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -647,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -655,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -663,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -672,12 +690,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -690,27 +732,27 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -718,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -726,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -734,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -742,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -750,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -758,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -766,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -782,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -790,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -798,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -807,12 +849,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/RQSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B1727C-1950-A741-BE1E-C3974BB5F5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="24920" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
-  </si>
-  <si>
     <t>Electricity Source</t>
   </si>
   <si>
@@ -62,9 +71,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
-  </si>
-  <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
   <si>
@@ -83,30 +89,6 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>differences between states.  Here, we use a "clean energy standard"</t>
-  </si>
-  <si>
-    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
-  </si>
-  <si>
-    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
-  </si>
-  <si>
-    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
-  </si>
-  <si>
-    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
-  </si>
-  <si>
-    <t>local air quality impacts and land use challenges.</t>
-  </si>
-  <si>
-    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
-  </si>
-  <si>
-    <t>see notes</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -117,12 +99,36 @@
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>BAU RPS-Qualifying Sources</t>
+  </si>
+  <si>
+    <t>Mexico legal definitions</t>
+  </si>
+  <si>
+    <t>Mexico counts everything except fossil fuels as "clean" energy.  This includes nuclear, hydro,</t>
+  </si>
+  <si>
+    <t>and biomass.</t>
+  </si>
+  <si>
+    <t>Mexico also counts some NG-fired combined heat and power as clean energy, but we</t>
+  </si>
+  <si>
+    <t>can't (and shouldn't) represent that in this variable</t>
+  </si>
+  <si>
+    <t>The non-BAU version of this variable tests what would happen if Mexico were</t>
+  </si>
+  <si>
+    <t>to adopt a much more restrictive definition of "clean" sources.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,12 +154,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,14 +181,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -271,6 +286,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +338,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,85 +530,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -569,154 +612,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -728,154 +769,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
